--- a/biology/Zoologie/Chiropterotriton/Chiropterotriton.xlsx
+++ b/biology/Zoologie/Chiropterotriton/Chiropterotriton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiropterotriton est un genre d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiropterotriton est un genre d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 23 espèces de ce genre sont endémiques de l'Ouest Mexique. Elles se rencontrent de l'État de Tamaulipas jusqu'au Nord de l'État d'Oaxaca[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 23 espèces de ce genre sont endémiques de l'Ouest Mexique. Elles se rencontrent de l'État de Tamaulipas jusqu'au Nord de l'État d'Oaxaca.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (16 juin 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (16 juin 2020) :
 Chiropterotriton arboreus (Taylor, 1941)
-Chiropterotriton aureus García-Castillo et al.[3], 2018
-Chiropterotriton casasi Parra-Olea et al.[4], 2020
-Chiropterotriton ceronorum Parra-Olea et al.[4], 2020
-Chiropterotriton chico García-Castillo et al.[5], 2017
+Chiropterotriton aureus García-Castillo et al., 2018
+Chiropterotriton casasi Parra-Olea et al., 2020
+Chiropterotriton ceronorum Parra-Olea et al., 2020
+Chiropterotriton chico García-Castillo et al., 2017
 Chiropterotriton chiropterus (Cope, 1863)
 Chiropterotriton chondrostega (Taylor, 1941)
 Chiropterotriton cieloensis Rovito &amp; Parra-Olea, 2015
@@ -558,16 +574,16 @@
 Chiropterotriton infernalis Rovito &amp; Parra-Olea, 2015
 Chiropterotriton lavae (Taylor, 1942)
 Chiropterotriton magnipes Rabb, 1965
-Chiropterotriton melipona Parra-Olea et al.[4], 2020
-Chiropterotriton miquihuanus Campbell et al.[6], 2014
+Chiropterotriton melipona Parra-Olea et al., 2020
+Chiropterotriton miquihuanus Campbell et al., 2014
 Chiropterotriton mosaueri (Woodall, 1941)
 Chiropterotriton multidentatus (Taylor, 1939)
-Chiropterotriton nubilus García-Castillo et al.[3], 2018
+Chiropterotriton nubilus García-Castillo et al., 2018
 Chiropterotriton orculus (Cope, 1865)
-Chiropterotriton perotensis Parra-Olea et al.[4], 2020
+Chiropterotriton perotensis Parra-Olea et al., 2020
 Chiropterotriton priscus Rabb, 1956
 Chiropterotriton terrestris (Taylor, 1941)
-Chiropterotriton totonacus Parra-Olea et al.[4], 2020</t>
+Chiropterotriton totonacus Parra-Olea et al., 2020</t>
         </is>
       </c>
     </row>
@@ -595,7 +611,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Taylor, 1944 : The genera of plethodont salamanders in Mexico, Pt. I. University of Kansas Science Bulletin, vol. 30, no 12, p. 189-232 (texte intégral).</t>
         </is>
